--- a/Assets/Tables/projectile.xlsx
+++ b/Assets/Tables/projectile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitRepository\GitLab\yh-project\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68919AB9-175F-4DA0-BC42-53416BC14842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D177FAE-29F3-480A-A223-E2957BF331D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>projectile_id</t>
   </si>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>密度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状乘数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>球径</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -558,12 +550,86 @@
     <t>explode_vfx</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>洞穴人流浪者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>caveman_stone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">形状乘数
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>估算：截面积与标准球形之比</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">密度
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相对密度</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷的石块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人暴徒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧瓶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>点燃的标枪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞穴人纵火者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>caveman_molotov</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>caveman_greek_fire_javelin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +731,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -712,7 +787,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -782,6 +857,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1060,25 +1138,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.125" style="4" customWidth="1"/>
-    <col min="8" max="10" width="9.125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9.125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="9" style="5" customWidth="1"/>
     <col min="11" max="11" width="13.75" style="4" customWidth="1"/>
     <col min="12" max="12" width="25" style="22" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.75" style="16" bestFit="1" customWidth="1"/>
@@ -1125,34 +1204,34 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1190,13 +1269,13 @@
         <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>28</v>
@@ -1214,7 +1293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -1236,54 +1315,54 @@
       <c r="G3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L3" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="U3" s="19"/>
       <c r="V3" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
@@ -1323,7 +1402,7 @@
         <v>9.6539E-3</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M4" s="14" t="str">
         <f>_xlfn.LET(_xlpm.id,A4,
@@ -1377,7 +1456,7 @@
         <v>7.7349999999999999E-4</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M5" s="14" t="str">
         <f t="shared" ref="M5:M12" si="2">_xlfn.LET(_xlpm.id,A5,
@@ -1394,7 +1473,7 @@
       <c r="T5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X5" s="4">
         <v>25</v>
@@ -1405,10 +1484,10 @@
         <v>1202</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>19</v>
@@ -1435,7 +1514,7 @@
         <v>9.0500000000000004E-5</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M6" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1489,7 +1568,7 @@
         <v>0.20909700000000001</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M7" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1507,7 +1586,7 @@
         <v>0.12545819143458434</v>
       </c>
       <c r="W7" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X7" s="4">
         <v>3.6</v>
@@ -1518,10 +1597,10 @@
         <v>1204</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>19</v>
@@ -1548,7 +1627,7 @@
         <v>4.1990000000000001E-4</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M8" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1563,7 +1642,7 @@
       <c r="T8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="X8" s="4">
         <v>40</v>
@@ -1574,10 +1653,10 @@
         <v>1205</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>19</v>
@@ -1606,7 +1685,7 @@
         <v>3.8615499999999997E-2</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M9" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1646,10 +1725,10 @@
         <v>1206</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>19</v>
@@ -1678,7 +1757,7 @@
         <v>3.8615499999999997E-2</v>
       </c>
       <c r="L10" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M10" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1703,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V10" s="4">
         <f>G10*I10^2</f>
@@ -1721,10 +1800,10 @@
         <v>2101</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>18</v>
@@ -1753,7 +1832,7 @@
         <v>3.4195900000000001E-2</v>
       </c>
       <c r="L12" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M12" s="14" t="str">
         <f t="shared" si="2"/>
@@ -1771,7 +1850,176 @@
       <c r="X12" s="17"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9">
+        <v>2102</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" ref="I13:I14" si="6">0.75*POWER(G13,1/3)/(H13*PI())</f>
+        <v>4.6537187672496129E-2</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4">
+        <f>ROUND(I13^2*J13*10,7)</f>
+        <v>2.1657099999999999E-2</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="14" t="str">
+        <f t="shared" ref="M13:M14" si="7">_xlfn.LET(_xlpm.id,A13,
+_xlfn.TEXTJOIN("_",1,IF(LEFT(_xlpm.id)="2","mpj","dpj"),_xlpm.id,LOWER(D13),L13)
+)</f>
+        <v>mpj_2102_bullet_caveman_stone</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="V13" s="4">
+        <f>G13*I13^2</f>
+        <v>4.3314196729302514E-4</v>
+      </c>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>2103</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" ref="I14:I15" si="8">0.75*POWER(G14,1/3)/(H14*PI())</f>
+        <v>0.11634296918124032</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="4">
+        <f>ROUND(I14^2*J14*10,7)</f>
+        <v>4.06071E-2</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="14" t="str">
+        <f t="shared" ref="M14:M15" si="9">_xlfn.LET(_xlpm.id,A14,
+_xlfn.TEXTJOIN("_",1,IF(LEFT(_xlpm.id)="2","mpj","dpj"),_xlpm.id,LOWER(D14),L14)
+)</f>
+        <v>mpj_2103_bullet_caveman_molotov</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="V14" s="4">
+        <f>G14*I14^2</f>
+        <v>2.7071372955814071E-3</v>
+      </c>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>2104</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="8"/>
+        <v>0.238732414637843</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K15" s="4">
+        <f>ROUND(I15^2*J15*10,7)</f>
+        <v>3.4195900000000001E-2</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>mpj_2104_arrow_caveman_greek_fire_javelin</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
